--- a/data/Questions_Control.xlsx
+++ b/data/Questions_Control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipevieira/Projects/StudyControl/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE29998-5802-EC42-B1D2-C200B43763F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F0BB60-CDBC-F14F-9B07-D58F8AE964FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{C6E2FDF8-1949-F143-9E29-E188F499118C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Disciplina</t>
   </si>
@@ -158,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -167,7 +167,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,7 +504,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="258" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,7 +537,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
@@ -593,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E14" si="0">C4-D4</f>
+        <f t="shared" ref="E4:E15" si="0">C4-D4</f>
         <v>0</v>
       </c>
       <c r="F4" s="2">
@@ -811,7 +810,25 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="2"/>
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45363</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F16" s="2"/>
